--- a/FrontEnd/Data/andre_worrie.xlsx
+++ b/FrontEnd/Data/andre_worrie.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhernieevangelista/Desktop/ClassRepos/Off_to_the_Races/FrontEnd/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2660F92E-7D99-B34D-B960-E669B478E455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B3A816-240D-A849-B442-D7EB241DA84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="840" windowWidth="25340" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7460" yWindow="-21100" windowWidth="25340" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Andre_weight_flux" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -189,7 +189,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -236,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
